--- a/data/private_consumption_Q.xlsx
+++ b/data/private_consumption_Q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerie/Desktop/Folder/UP/2024-I/IE2/bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerie/Documents/GitHub/forecasting_inflation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B258AAE-F58C-2549-BF93-4F7B48F4F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350636BA-05A2-EE4B-8A8B-86A6ED4625F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trimestrales" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,6 +1125,14 @@
         <v>91782.978616385997</v>
       </c>
     </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B94">
+        <v>91423.9506463328</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
